--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite MonthlyCatH201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite MonthlyCatH201718.xlsx
@@ -4,20 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="84" windowWidth="14340" windowHeight="4452" activeTab="3"/>
+    <workbookView activeTab="3" windowHeight="4452" windowWidth="14340" xWindow="384" yWindow="84"/>
   </bookViews>
   <sheets>
-    <sheet name="first" sheetId="1" r:id="rId1"/>
-    <sheet name="NIMonthlyCat_H" sheetId="2" r:id="rId2"/>
-    <sheet name="ProcessPayrollForNIMonthly" sheetId="4" r:id="rId3"/>
-    <sheet name="TestReports" sheetId="5" r:id="rId4"/>
+    <sheet name="first" r:id="rId1" sheetId="1"/>
+    <sheet name="NIMonthlyCat_H" r:id="rId2" sheetId="2"/>
+    <sheet name="ProcessPayrollForNIMonthly" r:id="rId3" sheetId="4"/>
+    <sheet name="TestReports" r:id="rId4" sheetId="5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="52">
   <si>
     <t>TC</t>
   </si>
@@ -179,6 +179,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -226,54 +227,54 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="15">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="2"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="2"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -287,10 +288,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -448,7 +449,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -457,13 +458,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -473,7 +474,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -482,7 +483,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -491,7 +492,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -501,12 +502,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -537,7 +538,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -556,7 +557,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -568,7 +569,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -577,10 +578,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="48.21875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="30.77734375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="33.5546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.21875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="48.21875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="30.77734375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="33.5546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.44140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -611,7 +612,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="3" s="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>29</v>
       </c>
@@ -625,7 +626,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row customFormat="1" ht="43.2" r="4" s="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>25</v>
       </c>
@@ -653,7 +654,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row customFormat="1" ht="28.8" r="6" s="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>13</v>
       </c>
@@ -667,7 +668,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+    <row ht="72" r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -682,13 +683,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -697,12 +698,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="31.33203125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13.44140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15.33203125" style="5" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="7.21875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="35.109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="31.33203125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="13.44140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="5" width="15.33203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="7.21875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
@@ -853,13 +854,13 @@
       <c r="H8" s="2"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -868,19 +869,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="53.109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.44140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="20.5546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.33203125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="34.5546875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="42.109375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="47" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.21875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="53.109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="35.44140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="20.5546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.33203125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="34.5546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="42.109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="47.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.21875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="1" s="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>30</v>
       </c>
@@ -921,7 +922,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="8" customFormat="1" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="45.6" r="2" s="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
         <v>50</v>
       </c>
@@ -956,7 +957,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="10" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row customFormat="1" ht="43.2" r="3" s="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
         <v>50</v>
       </c>
@@ -993,7 +994,7 @@
       <c r="L3" s="8"/>
       <c r="M3" s="8"/>
     </row>
-    <row r="4" spans="1:13" s="10" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row customFormat="1" ht="43.2" r="4" s="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
         <v>50</v>
       </c>
@@ -1030,7 +1031,7 @@
       <c r="L4" s="8"/>
       <c r="M4" s="8"/>
     </row>
-    <row r="5" spans="1:13" s="10" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row customFormat="1" ht="43.2" r="5" s="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="14" t="s">
         <v>50</v>
       </c>
@@ -1067,7 +1068,7 @@
       <c r="L5" s="8"/>
       <c r="M5" s="8"/>
     </row>
-    <row r="6" spans="1:13" s="10" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row customFormat="1" ht="43.2" r="6" s="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
         <v>50</v>
       </c>
@@ -1104,7 +1105,7 @@
       <c r="L6" s="8"/>
       <c r="M6" s="8"/>
     </row>
-    <row r="7" spans="1:13" s="10" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row customFormat="1" ht="43.2" r="7" s="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
         <v>50</v>
       </c>
@@ -1141,7 +1142,7 @@
       <c r="L7" s="8"/>
       <c r="M7" s="8"/>
     </row>
-    <row r="8" spans="1:13" s="10" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row customFormat="1" ht="43.2" r="8" s="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="14" t="s">
         <v>50</v>
       </c>
@@ -1180,15 +1181,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2:A8" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
+    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId1" ref="A2:A8"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId2" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1197,20 +1198,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.88671875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="36.21875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.33203125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.21875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="27" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="29.5546875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="51.21875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.33203125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="21.88671875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="30.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="36.21875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.33203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.21875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="27.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="29.5546875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="51.21875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="21.88671875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="10" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="27.6" r="1" s="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>30</v>
       </c>
@@ -1254,7 +1255,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="8" customFormat="1" ht="50.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="50.4" r="2" s="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
         <v>50</v>
       </c>
@@ -1294,8 +1295,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
+    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite MonthlyCatH201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite MonthlyCatH201718.xlsx
@@ -4,20 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView activeTab="3" windowHeight="4452" windowWidth="14340" xWindow="384" yWindow="84"/>
+    <workbookView xWindow="384" yWindow="84" windowWidth="14340" windowHeight="4452" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="first" r:id="rId1" sheetId="1"/>
-    <sheet name="NIMonthlyCat_H" r:id="rId2" sheetId="2"/>
-    <sheet name="ProcessPayrollForNIMonthly" r:id="rId3" sheetId="4"/>
-    <sheet name="TestReports" r:id="rId4" sheetId="5"/>
+    <sheet name="first" sheetId="1" r:id="rId1"/>
+    <sheet name="NIMonthlyCat_H" sheetId="2" r:id="rId2"/>
+    <sheet name="ProcessPayrollForNIMonthly" sheetId="4" r:id="rId3"/>
+    <sheet name="TestReports" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="52">
   <si>
     <t>TC</t>
   </si>
@@ -179,7 +179,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -227,54 +226,54 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="15">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle builtinId="8" name="Hyperlink" xfId="2"/>
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -288,10 +287,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -449,7 +448,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -458,13 +457,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -474,7 +473,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -483,7 +482,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -492,7 +491,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -502,12 +501,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
+            <a:lightRig rig="threePt" dir="t">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT h="25400" w="63500"/>
+            <a:bevelT w="63500" h="25400"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -538,7 +537,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -557,7 +556,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -569,7 +568,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -578,10 +577,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="48.21875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="30.77734375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="33.5546875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.44140625" collapsed="true"/>
+    <col min="1" max="1" width="48.21875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="30.77734375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="33.5546875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.21875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -612,7 +611,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" r="3" s="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>29</v>
       </c>
@@ -626,7 +625,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" ht="43.2" r="4" s="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>25</v>
       </c>
@@ -654,7 +653,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" ht="28.8" r="6" s="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>13</v>
       </c>
@@ -668,7 +667,7 @@
         <v>7</v>
       </c>
     </row>
-    <row ht="72" r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -683,13 +682,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -698,12 +697,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="35.109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="31.33203125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="13.44140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="5" width="15.33203125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="7.21875" collapsed="true"/>
+    <col min="1" max="1" width="35.109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="31.33203125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13.44140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15.33203125" style="5" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="7.21875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
@@ -854,13 +853,13 @@
       <c r="H8" s="2"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -869,19 +868,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="53.109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="35.44140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="20.5546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.33203125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="34.5546875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="42.109375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="47.0" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.21875" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.109375" collapsed="true"/>
+    <col min="1" max="1" width="53.109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="35.44140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="20.5546875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.33203125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="34.5546875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="42.109375" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="47" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.21875" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>30</v>
       </c>
@@ -922,7 +921,7 @@
         <v>11</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="45.6" r="2" s="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" s="8" customFormat="1" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
         <v>50</v>
       </c>
@@ -957,7 +956,7 @@
         <v>6</v>
       </c>
     </row>
-    <row customFormat="1" ht="43.2" r="3" s="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" s="10" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
         <v>50</v>
       </c>
@@ -994,7 +993,7 @@
       <c r="L3" s="8"/>
       <c r="M3" s="8"/>
     </row>
-    <row customFormat="1" ht="43.2" r="4" s="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" s="10" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
         <v>50</v>
       </c>
@@ -1031,7 +1030,7 @@
       <c r="L4" s="8"/>
       <c r="M4" s="8"/>
     </row>
-    <row customFormat="1" ht="43.2" r="5" s="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" s="10" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="14" t="s">
         <v>50</v>
       </c>
@@ -1068,7 +1067,7 @@
       <c r="L5" s="8"/>
       <c r="M5" s="8"/>
     </row>
-    <row customFormat="1" ht="43.2" r="6" s="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" s="10" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
         <v>50</v>
       </c>
@@ -1105,7 +1104,7 @@
       <c r="L6" s="8"/>
       <c r="M6" s="8"/>
     </row>
-    <row customFormat="1" ht="43.2" r="7" s="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" s="10" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
         <v>50</v>
       </c>
@@ -1142,7 +1141,7 @@
       <c r="L7" s="8"/>
       <c r="M7" s="8"/>
     </row>
-    <row customFormat="1" ht="43.2" r="8" s="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" s="10" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="14" t="s">
         <v>50</v>
       </c>
@@ -1181,15 +1180,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId1" ref="A2:A8"/>
+    <hyperlink ref="A2:A8" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId2" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1198,20 +1197,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="30.88671875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="36.21875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.33203125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.21875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="27.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="29.5546875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="51.21875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.33203125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="21.88671875" collapsed="true"/>
+    <col min="1" max="1" width="30.88671875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="36.21875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.33203125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.21875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="27" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="29.5546875" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="51.21875" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.33203125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="21.88671875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="27.6" r="1" s="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" s="10" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>30</v>
       </c>
@@ -1255,7 +1254,7 @@
         <v>11</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="50.4" r="2" s="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="8" customFormat="1" ht="50.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
         <v>50</v>
       </c>
@@ -1295,8 +1294,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite MonthlyCatH201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite MonthlyCatH201718.xlsx
@@ -4,20 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="84" windowWidth="14340" windowHeight="4452" activeTab="3"/>
+    <workbookView activeTab="3" windowHeight="4452" windowWidth="14340" xWindow="384" yWindow="84"/>
   </bookViews>
   <sheets>
-    <sheet name="first" sheetId="1" r:id="rId1"/>
-    <sheet name="NIMonthlyCat_H" sheetId="2" r:id="rId2"/>
-    <sheet name="ProcessPayrollForNIMonthly" sheetId="4" r:id="rId3"/>
-    <sheet name="TestReports" sheetId="5" r:id="rId4"/>
+    <sheet name="first" r:id="rId1" sheetId="1"/>
+    <sheet name="NIMonthlyCat_H" r:id="rId2" sheetId="2"/>
+    <sheet name="ProcessPayrollForNIMonthly" r:id="rId3" sheetId="4"/>
+    <sheet name="TestReports" r:id="rId4" sheetId="5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="52">
   <si>
     <t>TC</t>
   </si>
@@ -179,6 +179,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -226,54 +227,54 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="15">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="2"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="2"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -287,10 +288,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -448,7 +449,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -457,13 +458,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -473,7 +474,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -482,7 +483,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -491,7 +492,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -501,12 +502,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -537,7 +538,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -556,7 +557,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -568,7 +569,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -577,10 +578,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="48.21875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="30.77734375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="33.5546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.21875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="48.21875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="30.77734375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="33.5546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.44140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -611,7 +612,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="3" s="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>29</v>
       </c>
@@ -625,7 +626,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row customFormat="1" ht="43.2" r="4" s="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>25</v>
       </c>
@@ -653,7 +654,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row customFormat="1" ht="28.8" r="6" s="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>13</v>
       </c>
@@ -667,7 +668,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+    <row ht="72" r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -682,13 +683,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -697,12 +698,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="31.33203125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13.44140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15.33203125" style="5" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="7.21875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="35.109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="31.33203125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="13.44140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="5" width="15.33203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="7.21875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
@@ -853,13 +854,13 @@
       <c r="H8" s="2"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -868,19 +869,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="53.109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.44140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="20.5546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.33203125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="34.5546875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="42.109375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="47" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.21875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="53.109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="35.44140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="20.5546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.33203125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="34.5546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="42.109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="47.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.21875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="1" s="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>30</v>
       </c>
@@ -921,7 +922,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="8" customFormat="1" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="45.6" r="2" s="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
         <v>50</v>
       </c>
@@ -956,7 +957,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="10" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row customFormat="1" ht="43.2" r="3" s="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
         <v>50</v>
       </c>
@@ -993,7 +994,7 @@
       <c r="L3" s="8"/>
       <c r="M3" s="8"/>
     </row>
-    <row r="4" spans="1:13" s="10" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row customFormat="1" ht="43.2" r="4" s="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
         <v>50</v>
       </c>
@@ -1030,7 +1031,7 @@
       <c r="L4" s="8"/>
       <c r="M4" s="8"/>
     </row>
-    <row r="5" spans="1:13" s="10" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row customFormat="1" ht="43.2" r="5" s="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="14" t="s">
         <v>50</v>
       </c>
@@ -1067,7 +1068,7 @@
       <c r="L5" s="8"/>
       <c r="M5" s="8"/>
     </row>
-    <row r="6" spans="1:13" s="10" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row customFormat="1" ht="43.2" r="6" s="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
         <v>50</v>
       </c>
@@ -1104,7 +1105,7 @@
       <c r="L6" s="8"/>
       <c r="M6" s="8"/>
     </row>
-    <row r="7" spans="1:13" s="10" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row customFormat="1" ht="43.2" r="7" s="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
         <v>50</v>
       </c>
@@ -1141,7 +1142,7 @@
       <c r="L7" s="8"/>
       <c r="M7" s="8"/>
     </row>
-    <row r="8" spans="1:13" s="10" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row customFormat="1" ht="43.2" r="8" s="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="14" t="s">
         <v>50</v>
       </c>
@@ -1180,15 +1181,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2:A8" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
+    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId1" ref="A2:A8"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId2" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1197,20 +1198,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.88671875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="36.21875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.33203125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.21875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="27" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="29.5546875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="51.21875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.33203125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="21.88671875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="30.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="36.21875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.33203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.21875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="27.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="29.5546875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="51.21875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="21.88671875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="10" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="27.6" r="1" s="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>30</v>
       </c>
@@ -1254,7 +1255,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="8" customFormat="1" ht="50.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="50.4" r="2" s="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
         <v>50</v>
       </c>
@@ -1294,8 +1295,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
+    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite MonthlyCatH201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite MonthlyCatH201718.xlsx
@@ -1,23 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18326"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XCDHR\git\XCDHR_Payroll\Salesforce_Core_Framework\src\main\java\com\test\xcdhr\Salesforce_Core_Framework1\salesforce_XLS_Files\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="3" windowHeight="4452" windowWidth="14340" xWindow="384" yWindow="84"/>
+    <workbookView xWindow="390" yWindow="90" windowWidth="14340" windowHeight="4455" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="first" r:id="rId1" sheetId="1"/>
-    <sheet name="NIMonthlyCat_H" r:id="rId2" sheetId="2"/>
-    <sheet name="ProcessPayrollForNIMonthly" r:id="rId3" sheetId="4"/>
-    <sheet name="TestReports" r:id="rId4" sheetId="5"/>
+    <sheet name="first" sheetId="1" r:id="rId1"/>
+    <sheet name="NIMonthlyCat_H" sheetId="2" r:id="rId2"/>
+    <sheet name="ProcessPayrollForNIMonthly" sheetId="4" r:id="rId3"/>
+    <sheet name="TestReports" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="53">
   <si>
     <t>TC</t>
   </si>
@@ -173,13 +178,15 @@
   </si>
   <si>
     <t>Monthly_Payroll</t>
+  </si>
+  <si>
+    <t>F:\\Automation_TestResults\\Payroll_Tax_NI_Directors_TestReports 201718\\201718 Payroll National Insurance calculation Test result.xlsx</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -227,57 +234,60 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="15">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle builtinId="8" name="Hyperlink" xfId="2"/>
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -288,10 +298,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -326,7 +336,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -359,9 +369,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -394,6 +421,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -449,7 +493,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -458,13 +502,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -474,7 +518,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -483,7 +527,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -492,7 +536,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -502,12 +546,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
+            <a:lightRig rig="threePt" dir="t">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT h="25400" w="63500"/>
+            <a:bevelT w="63500" h="25400"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -538,7 +582,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -557,7 +601,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -569,22 +613,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="48.21875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="30.77734375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="33.5546875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.44140625" collapsed="true"/>
+    <col min="1" max="1" width="48.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="30.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="33.5703125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -598,7 +642,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>49</v>
       </c>
@@ -612,7 +656,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" r="3" s="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>29</v>
       </c>
@@ -626,7 +670,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" ht="43.2" r="4" s="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>25</v>
       </c>
@@ -640,7 +684,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -654,7 +698,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" ht="28.8" r="6" s="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>13</v>
       </c>
@@ -668,7 +712,7 @@
         <v>7</v>
       </c>
     </row>
-    <row ht="72" r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -683,30 +727,30 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="35.109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="31.33203125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="13.44140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="5" width="15.33203125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="7.21875" collapsed="true"/>
+    <col min="1" max="1" width="35.140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="31.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13.42578125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15.28515625" style="5" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -729,7 +773,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>18</v>
       </c>
@@ -746,7 +790,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>19</v>
       </c>
@@ -763,7 +807,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>20</v>
       </c>
@@ -781,7 +825,7 @@
       </c>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>21</v>
       </c>
@@ -799,7 +843,7 @@
       </c>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>22</v>
       </c>
@@ -817,7 +861,7 @@
       </c>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>23</v>
       </c>
@@ -835,7 +879,7 @@
       </c>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>24</v>
       </c>
@@ -854,34 +898,34 @@
       <c r="H8" s="2"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3:C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="53.109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="35.44140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="20.5546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.33203125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="34.5546875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="42.109375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="47.0" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.21875" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.109375" collapsed="true"/>
+    <col min="1" max="1" width="53.140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="35.42578125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="20.5703125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="34.5703125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="42.140625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="47" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.28515625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>30</v>
       </c>
@@ -922,7 +966,7 @@
         <v>11</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="45.6" r="2" s="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" s="8" customFormat="1" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>50</v>
       </c>
@@ -957,7 +1001,7 @@
         <v>6</v>
       </c>
     </row>
-    <row customFormat="1" ht="43.2" r="3" s="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" s="10" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>50</v>
       </c>
@@ -994,7 +1038,7 @@
       <c r="L3" s="8"/>
       <c r="M3" s="8"/>
     </row>
-    <row customFormat="1" ht="43.2" r="4" s="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" s="10" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>50</v>
       </c>
@@ -1031,7 +1075,7 @@
       <c r="L4" s="8"/>
       <c r="M4" s="8"/>
     </row>
-    <row customFormat="1" ht="43.2" r="5" s="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" s="10" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>50</v>
       </c>
@@ -1068,7 +1112,7 @@
       <c r="L5" s="8"/>
       <c r="M5" s="8"/>
     </row>
-    <row customFormat="1" ht="43.2" r="6" s="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" s="10" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>50</v>
       </c>
@@ -1105,7 +1149,7 @@
       <c r="L6" s="8"/>
       <c r="M6" s="8"/>
     </row>
-    <row customFormat="1" ht="43.2" r="7" s="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" s="10" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>50</v>
       </c>
@@ -1142,7 +1186,7 @@
       <c r="L7" s="8"/>
       <c r="M7" s="8"/>
     </row>
-    <row customFormat="1" ht="43.2" r="8" s="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" s="10" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>50</v>
       </c>
@@ -1181,37 +1225,37 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId1" ref="A2:A8"/>
+    <hyperlink ref="A2:A8" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId2" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="30.88671875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="36.21875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.33203125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.21875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="27.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="29.5546875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="51.21875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.33203125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="21.88671875" collapsed="true"/>
+    <col min="1" max="1" width="30.85546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="36.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="27" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="29.5703125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="51.28515625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.28515625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="21.85546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="27.6" r="1" s="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" s="10" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>30</v>
       </c>
@@ -1255,7 +1299,7 @@
         <v>11</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="50.4" r="2" s="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="8" customFormat="1" ht="50.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>50</v>
       </c>
@@ -1278,7 +1322,7 @@
         <v>39</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="I2" s="7" t="s">
         <v>43</v>
@@ -1295,8 +1339,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite MonthlyCatH201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite MonthlyCatH201718.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18201"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="390" yWindow="90" windowWidth="14340" windowHeight="4455" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="90" windowWidth="14340" windowHeight="4455" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="first" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="52">
   <si>
     <t>TC</t>
   </si>
@@ -157,9 +157,6 @@
   </si>
   <si>
     <t>24</t>
-  </si>
-  <si>
-    <t>F:\\Automation NI Reports\\HMRCTestData\\Payroll Tax Test Report 201718\\201718 Payroll National Insurance calculation Test result.xlsx</t>
   </si>
   <si>
     <t>Payroll Suite MonthlyCatH201718.xlsx</t>
@@ -186,7 +183,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -278,7 +275,7 @@
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -613,7 +610,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -644,7 +641,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -733,7 +730,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -778,7 +775,7 @@
         <v>18</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C2" s="12">
         <v>8160.48</v>
@@ -795,7 +792,7 @@
         <v>19</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C3" s="12">
         <v>8160.6</v>
@@ -812,7 +809,7 @@
         <v>20</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C4" s="12">
         <v>45000.480000000003</v>
@@ -830,7 +827,7 @@
         <v>21</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C5" s="12">
         <v>45000.6</v>
@@ -848,7 +845,7 @@
         <v>22</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C6" s="12">
         <v>45003.48</v>
@@ -866,7 +863,7 @@
         <v>23</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C7" s="12">
         <v>45003.6</v>
@@ -884,7 +881,7 @@
         <v>24</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C8" s="12">
         <v>66000</v>
@@ -904,11 +901,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C8"/>
+    <sheetView tabSelected="1" topLeftCell="E4" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -968,28 +965,28 @@
     </row>
     <row r="2" spans="1:13" s="8" customFormat="1" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>27</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G2" s="7" t="s">
         <v>39</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="I2" s="13" t="s">
         <v>40</v>
@@ -1001,30 +998,30 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="10" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" s="10" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>19</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>27</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G3" s="7" t="s">
         <v>39</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="I3" s="13" t="s">
         <v>40</v>
@@ -1038,30 +1035,30 @@
       <c r="L3" s="8"/>
       <c r="M3" s="8"/>
     </row>
-    <row r="4" spans="1:13" s="10" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" s="10" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>20</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>27</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>39</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="I4" s="13" t="s">
         <v>40</v>
@@ -1075,30 +1072,30 @@
       <c r="L4" s="8"/>
       <c r="M4" s="8"/>
     </row>
-    <row r="5" spans="1:13" s="10" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" s="10" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B5" s="11" t="s">
         <v>21</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>27</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>39</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="I5" s="13" t="s">
         <v>40</v>
@@ -1112,30 +1109,30 @@
       <c r="L5" s="8"/>
       <c r="M5" s="8"/>
     </row>
-    <row r="6" spans="1:13" s="10" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" s="10" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B6" s="11" t="s">
         <v>22</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>27</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>39</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="I6" s="13" t="s">
         <v>40</v>
@@ -1149,30 +1146,30 @@
       <c r="L6" s="8"/>
       <c r="M6" s="8"/>
     </row>
-    <row r="7" spans="1:13" s="10" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" s="10" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B7" s="11" t="s">
         <v>23</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>27</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>39</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="I7" s="13" t="s">
         <v>40</v>
@@ -1186,30 +1183,30 @@
       <c r="L7" s="8"/>
       <c r="M7" s="8"/>
     </row>
-    <row r="8" spans="1:13" s="10" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" s="10" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B8" s="11" t="s">
         <v>24</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>27</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>39</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="I8" s="13" t="s">
         <v>40</v>
@@ -1225,7 +1222,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2:A8" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="A2:A8" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
@@ -1233,10 +1230,10 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
@@ -1301,28 +1298,28 @@
     </row>
     <row r="2" spans="1:14" s="8" customFormat="1" ht="50.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>27</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G2" s="7" t="s">
         <v>39</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I2" s="7" t="s">
         <v>43</v>
@@ -1339,7 +1336,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite MonthlyCatH201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite MonthlyCatH201718.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="390" yWindow="90" windowWidth="14340" windowHeight="4455" activeTab="2"/>
+    <workbookView xWindow="390" yWindow="90" windowWidth="14340" windowHeight="4455" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="first" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="ProcessPayrollForNIMonthly" sheetId="4" r:id="rId3"/>
     <sheet name="TestReports" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
@@ -78,27 +78,6 @@
     <t>PayrollFrequency</t>
   </si>
   <si>
-    <t>DO NOT TOUCH AUTOMATION EMP 101</t>
-  </si>
-  <si>
-    <t>DO NOT TOUCH AUTOMATION EMP 102</t>
-  </si>
-  <si>
-    <t>DO NOT TOUCH AUTOMATION EMP 103</t>
-  </si>
-  <si>
-    <t>DO NOT TOUCH AUTOMATION EMP 104</t>
-  </si>
-  <si>
-    <t>DO NOT TOUCH AUTOMATION EMP 105</t>
-  </si>
-  <si>
-    <t>DO NOT TOUCH AUTOMATION EMP 106</t>
-  </si>
-  <si>
-    <t>DO NOT TOUCH AUTOMATION EMP 107</t>
-  </si>
-  <si>
     <t>TestReports</t>
   </si>
   <si>
@@ -171,13 +150,34 @@
     <t>NIMonthlyCat_H</t>
   </si>
   <si>
-    <t>DO NOT TOUCH PAYROLL AUTOMATION EMPLOYER_17/18</t>
-  </si>
-  <si>
-    <t>Monthly_Payroll</t>
-  </si>
-  <si>
     <t>F:\\Automation_TestResults\\Payroll_Tax_NI_Directors_TestReports 201718\\201718 Payroll National Insurance calculation Test result.xlsx</t>
+  </si>
+  <si>
+    <t>DO NOT TOUCH AUTOMATION EMP 570</t>
+  </si>
+  <si>
+    <t>DO NOT TOUCH AUTOMATION EMP 571</t>
+  </si>
+  <si>
+    <t>DO NOT TOUCH AUTOMATION EMP 572</t>
+  </si>
+  <si>
+    <t>DO NOT TOUCH AUTOMATION EMP 573</t>
+  </si>
+  <si>
+    <t>DO NOT TOUCH AUTOMATION EMP 574</t>
+  </si>
+  <si>
+    <t>DO NOT TOUCH AUTOMATION EMP 575</t>
+  </si>
+  <si>
+    <t>DO NOT TOUCH AUTOMATION EMP 576</t>
+  </si>
+  <si>
+    <t>DONT TOUCH AUTO NIMCH EMPLOYER</t>
+  </si>
+  <si>
+    <t>NIMCH_Payroll</t>
   </si>
 </sst>
 </file>
@@ -235,7 +235,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -244,7 +244,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -262,15 +261,13 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -641,7 +638,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -653,26 +650,26 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>28</v>
+    <row r="3" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>25</v>
+    <row r="4" spans="1:4" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>6</v>
@@ -695,8 +692,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+    <row r="6" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -734,15 +731,15 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="37.42578125" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="31.28515625" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="13.42578125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15.28515625" style="5" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15.28515625" style="4" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="13" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
@@ -754,7 +751,7 @@
       <c r="B1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -771,87 +768,87 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="5" t="s">
+      <c r="A2" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="10">
+        <v>8160.48</v>
+      </c>
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="10">
+        <v>8160.6</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="10">
+        <v>45000.480000000003</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="10">
+        <v>45000.6</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="12">
-        <v>8160.48</v>
-      </c>
-      <c r="D2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C3" s="12">
-        <v>8160.6</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C4" s="12">
-        <v>45000.480000000003</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H4" s="2"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C5" s="12">
-        <v>45000.6</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H5" s="2"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C6" s="12">
+      <c r="B6" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="10">
         <v>45003.48</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>27</v>
+      <c r="D6" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>6</v>
@@ -859,17 +856,17 @@
       <c r="H6" s="2"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C7" s="12">
+      <c r="A7" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="10">
         <v>45003.6</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>27</v>
+      <c r="D7" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>6</v>
@@ -877,17 +874,17 @@
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C8" s="12">
+      <c r="A8" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="10">
         <v>66000</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>27</v>
+      <c r="D8" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>6</v>
@@ -904,8 +901,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E4" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -922,307 +919,307 @@
     <col min="10" max="10" width="11.140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:13" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="9" t="s">
+      <c r="J1" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="K1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" s="7" customFormat="1" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="H2" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="I2" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="J2" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="G1" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="J1" s="9" t="s">
+      <c r="K2" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="K1" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="L1" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="M1" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" s="8" customFormat="1" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="G3" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+    </row>
+    <row r="4" spans="1:13" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+    </row>
+    <row r="5" spans="1:13" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+    </row>
+    <row r="6" spans="1:13" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+    </row>
+    <row r="7" spans="1:13" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+    </row>
+    <row r="8" spans="1:13" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G2" s="7" t="s">
+      <c r="C8" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="H2" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="I2" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" s="10" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="I3" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="K3" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-    </row>
-    <row r="4" spans="1:13" s="10" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="I4" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="K4" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-    </row>
-    <row r="5" spans="1:13" s="10" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="I5" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="K5" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-    </row>
-    <row r="6" spans="1:13" s="10" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="I6" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="K6" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-    </row>
-    <row r="7" spans="1:13" s="10" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="I7" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="K7" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-    </row>
-    <row r="8" spans="1:13" s="10" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="I8" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="K8" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
+      <c r="F8" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2:A8" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
+    <hyperlink ref="A2:A8" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
@@ -1233,8 +1230,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1252,91 +1249,91 @@
     <col min="11" max="11" width="21.85546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="10" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:14" s="9" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="9" t="s">
+      <c r="J1" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="K1" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" s="7" customFormat="1" ht="50.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="F1" s="9" t="s">
+      <c r="H2" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="J2" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="G1" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="I1" s="9" t="s">
+      <c r="K2" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="J1" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="K1" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="L1" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="M1" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="N1" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" s="8" customFormat="1" ht="50.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="K2" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="L2" s="8" t="s">
+      <c r="L2" s="7" t="s">
         <v>6</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite MonthlyCatH201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite MonthlyCatH201718.xlsx
@@ -1,28 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18201"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XCDHR\git\XCDHR_Payroll\Salesforce_Core_Framework\src\main\java\com\test\xcdhr\Salesforce_Core_Framework1\salesforce_XLS_Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="390" yWindow="90" windowWidth="14340" windowHeight="4455" activeTab="3"/>
+    <workbookView activeTab="3" windowHeight="4455" windowWidth="14340" xWindow="390" yWindow="90"/>
   </bookViews>
   <sheets>
-    <sheet name="first" sheetId="1" r:id="rId1"/>
-    <sheet name="NIMonthlyCat_H" sheetId="2" r:id="rId2"/>
-    <sheet name="ProcessPayrollForNIMonthly" sheetId="4" r:id="rId3"/>
-    <sheet name="TestReports" sheetId="5" r:id="rId4"/>
+    <sheet name="first" r:id="rId1" sheetId="1"/>
+    <sheet name="NIMonthlyCat_H" r:id="rId2" sheetId="2"/>
+    <sheet name="ProcessPayrollForNIMonthly" r:id="rId3" sheetId="4"/>
+    <sheet name="TestReports" r:id="rId4" sheetId="5"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="52">
   <si>
     <t>TC</t>
   </si>
@@ -184,6 +184,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -231,51 +232,51 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="14">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="2"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -292,10 +293,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -330,7 +331,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -382,7 +383,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -487,7 +488,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -496,13 +497,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -512,7 +513,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -521,7 +522,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -530,7 +531,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -540,12 +541,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -576,7 +577,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -595,7 +596,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -607,7 +608,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -616,10 +617,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="48.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="30.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="33.5703125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="48.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="30.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="33.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.44140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -650,7 +651,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="3" s="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>22</v>
       </c>
@@ -664,7 +665,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="45" r="4" s="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>18</v>
       </c>
@@ -692,7 +693,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="30" r="6" s="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>13</v>
       </c>
@@ -706,7 +707,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row ht="75" r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -721,13 +722,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -736,12 +737,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.42578125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="31.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13.42578125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15.28515625" style="4" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="37.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="31.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="4" width="15.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -892,13 +893,13 @@
       <c r="H8" s="2"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -907,19 +908,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="53.140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.42578125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="20.5703125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.28515625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="34.5703125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="42.140625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="47" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.28515625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="53.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="35.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="20.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="34.5703125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="42.140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="47.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="30" r="1" s="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>23</v>
       </c>
@@ -960,7 +961,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="7" customFormat="1" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="45.6" r="2" s="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>50</v>
       </c>
@@ -995,7 +996,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="45" r="3" s="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>50</v>
       </c>
@@ -1032,7 +1033,7 @@
       <c r="L3" s="7"/>
       <c r="M3" s="7"/>
     </row>
-    <row r="4" spans="1:13" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="45" r="4" s="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>50</v>
       </c>
@@ -1069,7 +1070,7 @@
       <c r="L4" s="7"/>
       <c r="M4" s="7"/>
     </row>
-    <row r="5" spans="1:13" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="45" r="5" s="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>50</v>
       </c>
@@ -1106,7 +1107,7 @@
       <c r="L5" s="7"/>
       <c r="M5" s="7"/>
     </row>
-    <row r="6" spans="1:13" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="45" r="6" s="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>50</v>
       </c>
@@ -1143,7 +1144,7 @@
       <c r="L6" s="7"/>
       <c r="M6" s="7"/>
     </row>
-    <row r="7" spans="1:13" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="45" r="7" s="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>50</v>
       </c>
@@ -1180,7 +1181,7 @@
       <c r="L7" s="7"/>
       <c r="M7" s="7"/>
     </row>
-    <row r="8" spans="1:13" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="45" r="8" s="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>50</v>
       </c>
@@ -1219,37 +1220,37 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2:A8" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2:A8"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId2" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.85546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="36.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.28515625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="27" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="29.5703125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="51.28515625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.28515625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="21.85546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="30.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="36.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="27.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="44.5703125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="51.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="21.85546875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="9" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="27.6" r="1" s="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>23</v>
       </c>
@@ -1293,7 +1294,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="7" customFormat="1" ht="50.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="50.45" r="2" s="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>50</v>
       </c>
@@ -1332,9 +1333,6 @@
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite MonthlyCatH201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite MonthlyCatH201718.xlsx
@@ -1,28 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18201"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent>
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XCDHR\git\XCDHR_Payroll\Salesforce_Core_Framework\src\main\java\com\test\xcdhr\Salesforce_Core_Framework1\salesforce_XLS_Files\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="3" windowHeight="4455" windowWidth="14340" xWindow="390" yWindow="90"/>
+    <workbookView xWindow="396" yWindow="96" windowWidth="14340" windowHeight="4452" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="first" r:id="rId1" sheetId="1"/>
-    <sheet name="NIMonthlyCat_H" r:id="rId2" sheetId="2"/>
-    <sheet name="ProcessPayrollForNIMonthly" r:id="rId3" sheetId="4"/>
-    <sheet name="TestReports" r:id="rId4" sheetId="5"/>
+    <sheet name="first" sheetId="1" r:id="rId1"/>
+    <sheet name="NIMonthlyCat_H" sheetId="2" r:id="rId2"/>
+    <sheet name="ProcessPayrollForNIMonthly" sheetId="4" r:id="rId3"/>
+    <sheet name="TestReports" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="53">
   <si>
     <t>TC</t>
   </si>
@@ -178,13 +173,15 @@
   </si>
   <si>
     <t>NIMCH_Payroll</t>
+  </si>
+  <si>
+    <t>September-2017</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -232,51 +229,52 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+  <cellXfs count="15">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle builtinId="8" name="Hyperlink" xfId="2"/>
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -293,10 +291,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -331,7 +329,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Cambria"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -364,26 +362,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -416,23 +397,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -488,7 +452,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -497,13 +461,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -513,7 +477,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -522,7 +486,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -531,7 +495,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -541,12 +505,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
+            <a:lightRig rig="threePt" dir="t">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT h="25400" w="63500"/>
+            <a:bevelT w="63500" h="25400"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -577,7 +541,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -596,7 +560,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -608,22 +572,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="48.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="30.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="33.5703125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.44140625" collapsed="true"/>
+    <col min="1" max="1" width="48.33203125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="30.6640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="33.5546875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.44140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -637,7 +601,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>41</v>
       </c>
@@ -651,7 +615,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" r="3" s="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>22</v>
       </c>
@@ -665,7 +629,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" ht="45" r="4" s="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>18</v>
       </c>
@@ -679,7 +643,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -693,7 +657,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" ht="30" r="6" s="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>13</v>
       </c>
@@ -707,7 +671,7 @@
         <v>7</v>
       </c>
     </row>
-    <row ht="75" r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -722,27 +686,27 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="37.42578125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="31.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="13.42578125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="4" width="15.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
+    <col min="1" max="1" width="37.44140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="31.33203125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13.44140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15.33203125" style="4" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="7.33203125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -893,34 +857,34 @@
       <c r="H8" s="2"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="53.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="35.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="20.5703125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="34.5703125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="42.140625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="47.0" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="1" max="1" width="53.109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="35.44140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="20.5546875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="27.5546875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="34.5546875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="42.109375" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="47" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.33203125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" ht="30" r="1" s="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>23</v>
       </c>
@@ -961,7 +925,7 @@
         <v>11</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="45.6" r="2" s="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" s="7" customFormat="1" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
         <v>50</v>
       </c>
@@ -974,8 +938,8 @@
       <c r="D2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>39</v>
+      <c r="E2" s="14" t="s">
+        <v>52</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>38</v>
@@ -996,7 +960,7 @@
         <v>6</v>
       </c>
     </row>
-    <row customFormat="1" ht="45" r="3" s="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" s="9" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
         <v>50</v>
       </c>
@@ -1009,8 +973,8 @@
       <c r="D3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="6" t="s">
-        <v>39</v>
+      <c r="E3" s="14" t="s">
+        <v>52</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>38</v>
@@ -1033,7 +997,7 @@
       <c r="L3" s="7"/>
       <c r="M3" s="7"/>
     </row>
-    <row customFormat="1" ht="45" r="4" s="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" s="9" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
         <v>50</v>
       </c>
@@ -1046,8 +1010,8 @@
       <c r="D4" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>39</v>
+      <c r="E4" s="14" t="s">
+        <v>52</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>38</v>
@@ -1070,7 +1034,7 @@
       <c r="L4" s="7"/>
       <c r="M4" s="7"/>
     </row>
-    <row customFormat="1" ht="45" r="5" s="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" s="9" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
         <v>50</v>
       </c>
@@ -1083,8 +1047,8 @@
       <c r="D5" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="6" t="s">
-        <v>39</v>
+      <c r="E5" s="14" t="s">
+        <v>52</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>38</v>
@@ -1107,7 +1071,7 @@
       <c r="L5" s="7"/>
       <c r="M5" s="7"/>
     </row>
-    <row customFormat="1" ht="45" r="6" s="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" s="9" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="s">
         <v>50</v>
       </c>
@@ -1120,8 +1084,8 @@
       <c r="D6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="6" t="s">
-        <v>39</v>
+      <c r="E6" s="14" t="s">
+        <v>52</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>38</v>
@@ -1144,7 +1108,7 @@
       <c r="L6" s="7"/>
       <c r="M6" s="7"/>
     </row>
-    <row customFormat="1" ht="45" r="7" s="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" s="9" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="13" t="s">
         <v>50</v>
       </c>
@@ -1157,8 +1121,8 @@
       <c r="D7" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="6" t="s">
-        <v>39</v>
+      <c r="E7" s="14" t="s">
+        <v>52</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>38</v>
@@ -1181,7 +1145,7 @@
       <c r="L7" s="7"/>
       <c r="M7" s="7"/>
     </row>
-    <row customFormat="1" ht="45" r="8" s="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" s="9" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="13" t="s">
         <v>50</v>
       </c>
@@ -1194,8 +1158,8 @@
       <c r="D8" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="6" t="s">
-        <v>39</v>
+      <c r="E8" s="14" t="s">
+        <v>52</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>38</v>
@@ -1220,37 +1184,37 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2:A8"/>
+    <hyperlink ref="A2:A8" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId2" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="30.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="36.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="27.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="44.5703125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="51.28515625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="21.85546875" collapsed="true"/>
+    <col min="1" max="1" width="30.88671875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="36.33203125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.33203125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.33203125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="27" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="44.5546875" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="51.33203125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.33203125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="21.88671875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="27.6" r="1" s="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="9" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>23</v>
       </c>
@@ -1294,7 +1258,7 @@
         <v>11</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="50.45" r="2" s="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="7" customFormat="1" ht="50.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>50</v>
       </c>
@@ -1333,6 +1297,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite MonthlyCatH201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite MonthlyCatH201718.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18730"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\git\XCDHR_Payroll\Salesforce_Core_Framework\src\main\java\com\test\xcdhr\Salesforce_Core_Framework1\salesforce_XLS_Files\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="396" yWindow="96" windowWidth="14340" windowHeight="4452" activeTab="2"/>
+    <workbookView xWindow="390" yWindow="90" windowWidth="14340" windowHeight="4455" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="first" sheetId="1" r:id="rId1"/>
@@ -175,13 +180,13 @@
     <t>NIMCH_Payroll</t>
   </si>
   <si>
-    <t>September-2017</t>
+    <t>January-2018</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -329,7 +334,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -362,9 +367,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -397,6 +419,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -579,15 +618,15 @@
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="48.33203125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="30.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="33.5546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="48.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="30.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="33.5703125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -601,7 +640,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>41</v>
       </c>
@@ -615,7 +654,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>22</v>
       </c>
@@ -643,7 +682,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -699,14 +738,14 @@
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.44140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="31.33203125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13.44140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15.33203125" style="4" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="37.42578125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="31.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13.42578125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15.28515625" style="4" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="13" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="7.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -870,21 +909,21 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="53.109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.44140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="20.5546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="53.140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="35.42578125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="20.5703125" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="12" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="27.5546875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="34.5546875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="42.109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="27.5703125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="34.5703125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="42.140625" customWidth="1" collapsed="1"/>
     <col min="8" max="8" width="47" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.33203125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.109375" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.28515625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>23</v>
       </c>
@@ -925,7 +964,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="7" customFormat="1" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" s="7" customFormat="1" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>50</v>
       </c>
@@ -960,7 +999,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="9" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>50</v>
       </c>
@@ -997,7 +1036,7 @@
       <c r="L3" s="7"/>
       <c r="M3" s="7"/>
     </row>
-    <row r="4" spans="1:13" s="9" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>50</v>
       </c>
@@ -1034,7 +1073,7 @@
       <c r="L4" s="7"/>
       <c r="M4" s="7"/>
     </row>
-    <row r="5" spans="1:13" s="9" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>50</v>
       </c>
@@ -1071,7 +1110,7 @@
       <c r="L5" s="7"/>
       <c r="M5" s="7"/>
     </row>
-    <row r="6" spans="1:13" s="9" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>50</v>
       </c>
@@ -1108,7 +1147,7 @@
       <c r="L6" s="7"/>
       <c r="M6" s="7"/>
     </row>
-    <row r="7" spans="1:13" s="9" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>50</v>
       </c>
@@ -1145,7 +1184,7 @@
       <c r="L7" s="7"/>
       <c r="M7" s="7"/>
     </row>
-    <row r="8" spans="1:13" s="9" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>50</v>
       </c>
@@ -1199,19 +1238,19 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.88671875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="36.33203125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.33203125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.33203125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="30.85546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="36.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.28515625" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="27" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="44.5546875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="51.33203125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="44.5703125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="51.28515625" customWidth="1" collapsed="1"/>
     <col min="9" max="9" width="12" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.33203125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="21.88671875" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.28515625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="21.85546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="9" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -1258,7 +1297,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="7" customFormat="1" ht="50.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="7" customFormat="1" ht="50.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>50</v>
       </c>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite MonthlyCatH201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite MonthlyCatH201718.xlsx
@@ -1,28 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18730"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\git\XCDHR_Payroll\Salesforce_Core_Framework\src\main\java\com\test\xcdhr\Salesforce_Core_Framework1\salesforce_XLS_Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="390" yWindow="90" windowWidth="14340" windowHeight="4455" activeTab="2"/>
+    <workbookView activeTab="2" windowHeight="4455" windowWidth="14340" xWindow="390" yWindow="90"/>
   </bookViews>
   <sheets>
-    <sheet name="first" sheetId="1" r:id="rId1"/>
-    <sheet name="NIMonthlyCat_H" sheetId="2" r:id="rId2"/>
-    <sheet name="ProcessPayrollForNIMonthly" sheetId="4" r:id="rId3"/>
-    <sheet name="TestReports" sheetId="5" r:id="rId4"/>
+    <sheet name="first" r:id="rId1" sheetId="1"/>
+    <sheet name="NIMonthlyCat_H" r:id="rId2" sheetId="2"/>
+    <sheet name="ProcessPayrollForNIMonthly" r:id="rId3" sheetId="4"/>
+    <sheet name="TestReports" r:id="rId4" sheetId="5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="53">
   <si>
     <t>TC</t>
   </si>
@@ -180,13 +180,14 @@
     <t>NIMCH_Payroll</t>
   </si>
   <si>
-    <t>January-2018</t>
+    <t>March-2018-Final</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -234,52 +235,52 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="15">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="2"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -296,10 +297,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -334,7 +335,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -386,7 +387,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -491,7 +492,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -500,13 +501,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -516,7 +517,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -525,7 +526,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -534,7 +535,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -544,12 +545,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -580,7 +581,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -599,7 +600,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -611,7 +612,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -620,10 +621,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="48.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="30.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="33.5703125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="48.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="30.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="33.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.44140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -654,7 +655,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="3" s="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>22</v>
       </c>
@@ -668,7 +669,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="45" r="4" s="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>18</v>
       </c>
@@ -696,7 +697,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="30" r="6" s="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>13</v>
       </c>
@@ -710,7 +711,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row ht="75" r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -725,13 +726,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -740,12 +741,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.42578125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="31.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13.42578125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15.28515625" style="4" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="37.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="31.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="4" width="15.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -896,34 +897,34 @@
       <c r="H8" s="2"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="53.140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.42578125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="20.5703125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="27.5703125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="34.5703125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="42.140625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="47" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.28515625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="53.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="35.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="20.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="27.5703125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="34.5703125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="42.140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="47.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="30" r="1" s="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>23</v>
       </c>
@@ -964,7 +965,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="7" customFormat="1" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="45.6" r="2" s="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>50</v>
       </c>
@@ -999,7 +1000,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="45" r="3" s="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>50</v>
       </c>
@@ -1036,7 +1037,7 @@
       <c r="L3" s="7"/>
       <c r="M3" s="7"/>
     </row>
-    <row r="4" spans="1:13" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="45" r="4" s="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>50</v>
       </c>
@@ -1073,7 +1074,7 @@
       <c r="L4" s="7"/>
       <c r="M4" s="7"/>
     </row>
-    <row r="5" spans="1:13" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="45" r="5" s="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>50</v>
       </c>
@@ -1110,7 +1111,7 @@
       <c r="L5" s="7"/>
       <c r="M5" s="7"/>
     </row>
-    <row r="6" spans="1:13" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="45" r="6" s="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>50</v>
       </c>
@@ -1147,7 +1148,7 @@
       <c r="L6" s="7"/>
       <c r="M6" s="7"/>
     </row>
-    <row r="7" spans="1:13" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="45" r="7" s="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>50</v>
       </c>
@@ -1184,7 +1185,7 @@
       <c r="L7" s="7"/>
       <c r="M7" s="7"/>
     </row>
-    <row r="8" spans="1:13" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="45" r="8" s="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>50</v>
       </c>
@@ -1223,15 +1224,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2:A8" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2:A8"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId2" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1240,20 +1241,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.85546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="36.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.28515625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="27" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="44.5703125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="51.28515625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.28515625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="21.85546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="30.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="36.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="27.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="44.5703125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="51.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="21.85546875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="9" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="27.6" r="1" s="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>23</v>
       </c>
@@ -1297,7 +1298,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="7" customFormat="1" ht="50.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="50.45" r="2" s="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>50</v>
       </c>
@@ -1336,6 +1337,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite MonthlyCatH201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite MonthlyCatH201718.xlsx
@@ -1,28 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent>
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\git\XCDHR_Payroll\Salesforce_Core_Framework\src\main\java\com\test\xcdhr\Salesforce_Core_Framework1\salesforce_XLS_Files\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="2" windowHeight="4455" windowWidth="14340" xWindow="390" yWindow="90"/>
+    <workbookView xWindow="396" yWindow="96" windowWidth="14340" windowHeight="4452" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="first" r:id="rId1" sheetId="1"/>
-    <sheet name="NIMonthlyCat_H" r:id="rId2" sheetId="2"/>
-    <sheet name="ProcessPayrollForNIMonthly" r:id="rId3" sheetId="4"/>
-    <sheet name="TestReports" r:id="rId4" sheetId="5"/>
+    <sheet name="first" sheetId="1" r:id="rId1"/>
+    <sheet name="NIMonthlyCat_H" sheetId="2" r:id="rId2"/>
+    <sheet name="ProcessPayrollForNIMonthly" sheetId="4" r:id="rId3"/>
+    <sheet name="TestReports" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="52">
   <si>
     <t>TC</t>
   </si>
@@ -178,16 +173,12 @@
   </si>
   <si>
     <t>NIMCH_Payroll</t>
-  </si>
-  <si>
-    <t>March-2018-Final</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -235,52 +226,52 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="15">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle builtinId="8" name="Hyperlink" xfId="2"/>
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -297,10 +288,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -335,7 +326,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Cambria"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -368,26 +359,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -420,23 +394,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -492,7 +449,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -501,13 +458,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -517,7 +474,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -526,7 +483,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -535,7 +492,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -545,12 +502,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
+            <a:lightRig rig="threePt" dir="t">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT h="25400" w="63500"/>
+            <a:bevelT w="63500" h="25400"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -581,7 +538,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -600,7 +557,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -612,22 +569,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="48.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="30.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="33.5703125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.44140625" collapsed="true"/>
+    <col min="1" max="1" width="48.33203125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="30.6640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="33.5546875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.44140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -641,7 +598,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>41</v>
       </c>
@@ -655,7 +612,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" r="3" s="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>22</v>
       </c>
@@ -669,7 +626,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" ht="45" r="4" s="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>18</v>
       </c>
@@ -683,7 +640,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -697,7 +654,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" ht="30" r="6" s="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>13</v>
       </c>
@@ -711,7 +668,7 @@
         <v>7</v>
       </c>
     </row>
-    <row ht="75" r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -726,27 +683,27 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="37.42578125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="31.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="13.42578125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="4" width="15.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
+    <col min="1" max="1" width="37.44140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="31.33203125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13.44140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15.33203125" style="4" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="7.33203125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -897,34 +854,34 @@
       <c r="H8" s="2"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="53.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="35.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="20.5703125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="27.5703125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="34.5703125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="42.140625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="47.0" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="1" max="1" width="53.109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="35.44140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="20.5546875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="27.5546875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="34.5546875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="42.109375" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="47" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.33203125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" ht="30" r="1" s="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>23</v>
       </c>
@@ -965,7 +922,7 @@
         <v>11</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="45.6" r="2" s="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" s="7" customFormat="1" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>50</v>
       </c>
@@ -979,7 +936,7 @@
         <v>20</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>38</v>
@@ -1000,7 +957,7 @@
         <v>6</v>
       </c>
     </row>
-    <row customFormat="1" ht="45" r="3" s="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>50</v>
       </c>
@@ -1014,7 +971,7 @@
         <v>20</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>38</v>
@@ -1037,7 +994,7 @@
       <c r="L3" s="7"/>
       <c r="M3" s="7"/>
     </row>
-    <row customFormat="1" ht="45" r="4" s="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>50</v>
       </c>
@@ -1051,7 +1008,7 @@
         <v>20</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>38</v>
@@ -1074,7 +1031,7 @@
       <c r="L4" s="7"/>
       <c r="M4" s="7"/>
     </row>
-    <row customFormat="1" ht="45" r="5" s="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>50</v>
       </c>
@@ -1088,7 +1045,7 @@
         <v>20</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>38</v>
@@ -1111,7 +1068,7 @@
       <c r="L5" s="7"/>
       <c r="M5" s="7"/>
     </row>
-    <row customFormat="1" ht="45" r="6" s="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>50</v>
       </c>
@@ -1125,7 +1082,7 @@
         <v>20</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>38</v>
@@ -1148,7 +1105,7 @@
       <c r="L6" s="7"/>
       <c r="M6" s="7"/>
     </row>
-    <row customFormat="1" ht="45" r="7" s="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>50</v>
       </c>
@@ -1162,7 +1119,7 @@
         <v>20</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>38</v>
@@ -1185,7 +1142,7 @@
       <c r="L7" s="7"/>
       <c r="M7" s="7"/>
     </row>
-    <row customFormat="1" ht="45" r="8" s="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" s="9" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="13" t="s">
         <v>50</v>
       </c>
@@ -1199,7 +1156,7 @@
         <v>20</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>38</v>
@@ -1224,37 +1181,37 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2:A8"/>
+    <hyperlink ref="A2:A8" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId2" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="30.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="36.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="27.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="44.5703125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="51.28515625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="21.85546875" collapsed="true"/>
+    <col min="1" max="1" width="30.88671875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="36.33203125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.33203125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.33203125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="27" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="44.5546875" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="51.33203125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.33203125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="21.88671875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="27.6" r="1" s="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="9" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>23</v>
       </c>
@@ -1298,7 +1255,7 @@
         <v>11</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="50.45" r="2" s="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="7" customFormat="1" ht="50.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>50</v>
       </c>
@@ -1337,6 +1294,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite MonthlyCatH201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite MonthlyCatH201718.xlsx
@@ -4,20 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="396" yWindow="96" windowWidth="14340" windowHeight="4452" activeTab="2"/>
+    <workbookView activeTab="2" windowHeight="4452" windowWidth="14340" xWindow="396" yWindow="96"/>
   </bookViews>
   <sheets>
-    <sheet name="first" sheetId="1" r:id="rId1"/>
-    <sheet name="NIMonthlyCat_H" sheetId="2" r:id="rId2"/>
-    <sheet name="ProcessPayrollForNIMonthly" sheetId="4" r:id="rId3"/>
-    <sheet name="TestReports" sheetId="5" r:id="rId4"/>
+    <sheet name="first" r:id="rId1" sheetId="1"/>
+    <sheet name="NIMonthlyCat_H" r:id="rId2" sheetId="2"/>
+    <sheet name="ProcessPayrollForNIMonthly" r:id="rId3" sheetId="4"/>
+    <sheet name="TestReports" r:id="rId4" sheetId="5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="52">
   <si>
     <t>TC</t>
   </si>
@@ -179,6 +179,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -226,52 +227,52 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="15">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="2"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -288,10 +289,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -449,7 +450,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -458,13 +459,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -474,7 +475,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -483,7 +484,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -492,7 +493,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -502,12 +503,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -538,7 +539,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -557,7 +558,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -569,7 +570,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -578,13 +579,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="48.33203125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="30.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="33.5546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="48.33203125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="30.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="33.5546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.44140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -598,7 +599,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>41</v>
       </c>
@@ -612,7 +613,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="15" r="3" s="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>22</v>
       </c>
@@ -626,7 +627,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="45" r="4" s="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>18</v>
       </c>
@@ -640,7 +641,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -654,7 +655,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="30" r="6" s="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>13</v>
       </c>
@@ -668,7 +669,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row ht="75" r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -683,13 +684,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -698,12 +699,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="37.44140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="31.33203125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13.44140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15.33203125" style="4" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="7.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="37.44140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="31.33203125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="13.44140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="4" width="15.33203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="7.33203125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -854,13 +855,13 @@
       <c r="H8" s="2"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
@@ -869,19 +870,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="53.109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.44140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="20.5546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="27.5546875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="34.5546875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="42.109375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="47" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.33203125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="53.109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="35.44140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="20.5546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="27.5546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="34.5546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="42.109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="47.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="30" r="1" s="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>23</v>
       </c>
@@ -922,7 +923,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="7" customFormat="1" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="45.6" r="2" s="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>50</v>
       </c>
@@ -957,7 +958,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="45" r="3" s="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>50</v>
       </c>
@@ -994,7 +995,7 @@
       <c r="L3" s="7"/>
       <c r="M3" s="7"/>
     </row>
-    <row r="4" spans="1:13" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="45" r="4" s="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>50</v>
       </c>
@@ -1031,7 +1032,7 @@
       <c r="L4" s="7"/>
       <c r="M4" s="7"/>
     </row>
-    <row r="5" spans="1:13" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="45" r="5" s="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>50</v>
       </c>
@@ -1068,7 +1069,7 @@
       <c r="L5" s="7"/>
       <c r="M5" s="7"/>
     </row>
-    <row r="6" spans="1:13" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="45" r="6" s="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>50</v>
       </c>
@@ -1105,7 +1106,7 @@
       <c r="L6" s="7"/>
       <c r="M6" s="7"/>
     </row>
-    <row r="7" spans="1:13" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="45" r="7" s="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>50</v>
       </c>
@@ -1142,7 +1143,7 @@
       <c r="L7" s="7"/>
       <c r="M7" s="7"/>
     </row>
-    <row r="8" spans="1:13" s="9" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row customFormat="1" ht="43.2" r="8" s="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="13" t="s">
         <v>50</v>
       </c>
@@ -1181,15 +1182,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2:A8" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2:A8"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId2" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1198,20 +1199,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.88671875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="36.33203125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.33203125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.33203125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="27" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="44.5546875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="51.33203125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.33203125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="21.88671875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="30.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="36.33203125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.33203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.33203125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="27.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="44.5546875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="51.33203125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="21.88671875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="9" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="27.6" r="1" s="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>23</v>
       </c>
@@ -1255,7 +1256,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="7" customFormat="1" ht="50.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="50.4" r="2" s="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>50</v>
       </c>
@@ -1294,6 +1295,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite MonthlyCatH201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite MonthlyCatH201718.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="52">
   <si>
     <t>TC</t>
   </si>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite MonthlyCatH201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite MonthlyCatH201718.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="52">
   <si>
     <t>TC</t>
   </si>
